--- a/biology/Botanique/Kaokochloa_nigrirostris/Kaokochloa_nigrirostris.xlsx
+++ b/biology/Botanique/Kaokochloa_nigrirostris/Kaokochloa_nigrirostris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kaokochloa nigrirostris  est une espèce de  plantes monocotylédones de la famille des Poaceae, sous-famille des Chloridoideae, originaire d'Afrique australe.  C'est l'unique espèce du genre Kaokochloa (genre monotypique).
 Ce sont des plantes herbacées, annuelles, aux tiges décombantes de 20 à 60 cm de long. Les inflorescences sont des panicules.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Kaokochloa » se réfère au Kaokoveld dans le sud-ouest de l'Afrique où la plante a été découverte, avec le suffixe chloa (χλόα), signifiant herbe en grec[3].
-L'épithète spécifique « nigrirostris » est composée de deux racines latines, niger, noir, et rostrum, bec, en référence à la lemme fertile dont l'extrémité est foncée[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Kaokochloa » se réfère au Kaokoveld dans le sud-ouest de l'Afrique où la plante a été découverte, avec le suffixe chloa (χλόα), signifiant herbe en grec.
+L'épithète spécifique « nigrirostris » est composée de deux racines latines, niger, noir, et rostrum, bec, en référence à la lemme fertile dont l'extrémité est foncée.
 </t>
         </is>
       </c>
